--- a/data/nzd0099/nzd0099.xlsx
+++ b/data/nzd0099/nzd0099.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G286"/>
+  <dimension ref="A1:G294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7929,6 +7929,216 @@
       <c r="G286" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr"/>
+      <c r="C287" t="inlineStr"/>
+      <c r="D287" t="inlineStr"/>
+      <c r="E287" t="n">
+        <v>381.195</v>
+      </c>
+      <c r="F287" t="n">
+        <v>383.63</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>393.4364705882353</v>
+      </c>
+      <c r="C288" t="n">
+        <v>391.98</v>
+      </c>
+      <c r="D288" t="n">
+        <v>389.7164705882353</v>
+      </c>
+      <c r="E288" t="n">
+        <v>391.9</v>
+      </c>
+      <c r="F288" t="n">
+        <v>395.7476923076923</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>405.6970588235294</v>
+      </c>
+      <c r="C289" t="n">
+        <v>402.015</v>
+      </c>
+      <c r="D289" t="n">
+        <v>399.9570588235294</v>
+      </c>
+      <c r="E289" t="n">
+        <v>400.735</v>
+      </c>
+      <c r="F289" t="n">
+        <v>401.66</v>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>397.2335294117647</v>
+      </c>
+      <c r="C290" t="n">
+        <v>396.05</v>
+      </c>
+      <c r="D290" t="n">
+        <v>392.3035294117647</v>
+      </c>
+      <c r="E290" t="n">
+        <v>394.5</v>
+      </c>
+      <c r="F290" t="n">
+        <v>389.6323076923077</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>386.9817647058824</v>
+      </c>
+      <c r="C291" t="n">
+        <v>385.98</v>
+      </c>
+      <c r="D291" t="n">
+        <v>384.9117647058824</v>
+      </c>
+      <c r="E291" t="n">
+        <v>394.29</v>
+      </c>
+      <c r="F291" t="n">
+        <v>385.5361538461539</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>397.4258823529412</v>
+      </c>
+      <c r="C292" t="n">
+        <v>391.81</v>
+      </c>
+      <c r="D292" t="n">
+        <v>393.2758823529412</v>
+      </c>
+      <c r="E292" t="n">
+        <v>390.39</v>
+      </c>
+      <c r="F292" t="n">
+        <v>390.7738461538461</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>395.3652941176471</v>
+      </c>
+      <c r="C293" t="n">
+        <v>391.14</v>
+      </c>
+      <c r="D293" t="n">
+        <v>389.2152941176471</v>
+      </c>
+      <c r="E293" t="n">
+        <v>391.15</v>
+      </c>
+      <c r="F293" t="n">
+        <v>395.0069230769231</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>383.1476470588235</v>
+      </c>
+      <c r="C294" t="n">
+        <v>378.42</v>
+      </c>
+      <c r="D294" t="n">
+        <v>377.2976470588235</v>
+      </c>
+      <c r="E294" t="n">
+        <v>377.31</v>
+      </c>
+      <c r="F294" t="n">
+        <v>384.7407692307692</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -7943,7 +8153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B304"/>
+  <dimension ref="A1:B312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10991,6 +11201,86 @@
       </c>
       <c r="B304" t="n">
         <v>1.07</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
@@ -11159,28 +11449,28 @@
         <v>0.09669999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2609816349478721</v>
+        <v>0.2390492117904561</v>
       </c>
       <c r="J2" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="K2" t="n">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0332007288405739</v>
+        <v>0.02898572601451166</v>
       </c>
       <c r="M2" t="n">
-        <v>7.688144739769806</v>
+        <v>7.639626827443438</v>
       </c>
       <c r="N2" t="n">
-        <v>97.795336966435</v>
+        <v>96.92293045695479</v>
       </c>
       <c r="O2" t="n">
-        <v>9.889152489795826</v>
+        <v>9.844944411064736</v>
       </c>
       <c r="P2" t="n">
-        <v>391.8691851214721</v>
+        <v>392.0976971808459</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -11236,28 +11526,28 @@
         <v>0.0892</v>
       </c>
       <c r="I3" t="n">
-        <v>0.219766710428206</v>
+        <v>0.2348282361157563</v>
       </c>
       <c r="J3" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="K3" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04054022895386289</v>
+        <v>0.04722448107514055</v>
       </c>
       <c r="M3" t="n">
-        <v>5.93772665139762</v>
+        <v>5.941847987635554</v>
       </c>
       <c r="N3" t="n">
-        <v>56.75990818330879</v>
+        <v>56.73500102076294</v>
       </c>
       <c r="O3" t="n">
-        <v>7.533917187181498</v>
+        <v>7.532264003655404</v>
       </c>
       <c r="P3" t="n">
-        <v>382.4770466174426</v>
+        <v>382.3217757968835</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -11313,28 +11603,28 @@
         <v>0.0968</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1670383437720062</v>
+        <v>0.1838471805783172</v>
       </c>
       <c r="J4" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="K4" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02338415891050361</v>
+        <v>0.02893950784469557</v>
       </c>
       <c r="M4" t="n">
-        <v>6.11712382786413</v>
+        <v>6.111250579353202</v>
       </c>
       <c r="N4" t="n">
-        <v>58.75899706924983</v>
+        <v>58.63683569248838</v>
       </c>
       <c r="O4" t="n">
-        <v>7.665441739994495</v>
+        <v>7.657469274668256</v>
       </c>
       <c r="P4" t="n">
-        <v>381.851908094208</v>
+        <v>381.6792130882859</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -11390,28 +11680,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1522429636263928</v>
+        <v>0.1647587034956395</v>
       </c>
       <c r="J5" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="K5" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01984817111073645</v>
+        <v>0.02380754033586607</v>
       </c>
       <c r="M5" t="n">
-        <v>5.969548318141673</v>
+        <v>5.984531817305749</v>
       </c>
       <c r="N5" t="n">
-        <v>58.74333601209935</v>
+        <v>58.61978246737724</v>
       </c>
       <c r="O5" t="n">
-        <v>7.664420135411377</v>
+        <v>7.656355691017577</v>
       </c>
       <c r="P5" t="n">
-        <v>384.0106950920874</v>
+        <v>383.8823355928103</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -11467,28 +11757,28 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1191351066696464</v>
+        <v>0.1469186901101253</v>
       </c>
       <c r="J6" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="K6" t="n">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01258786078368834</v>
+        <v>0.01951879886264363</v>
       </c>
       <c r="M6" t="n">
-        <v>5.992219844837337</v>
+        <v>5.988309565354569</v>
       </c>
       <c r="N6" t="n">
-        <v>56.64851029803928</v>
+        <v>56.66085802919016</v>
       </c>
       <c r="O6" t="n">
-        <v>7.526520464201189</v>
+        <v>7.527340701017203</v>
       </c>
       <c r="P6" t="n">
-        <v>382.8702274875849</v>
+        <v>382.5833858791285</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -11525,7 +11815,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G286"/>
+  <dimension ref="A1:G294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21643,6 +21933,290 @@
         </is>
       </c>
     </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr"/>
+      <c r="C287" t="inlineStr"/>
+      <c r="D287" t="inlineStr"/>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>-35.71510246788681,174.53394232427902</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>-35.71525907155839,174.5348064767189</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>-35.71413242355364,174.53156379166515</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>-35.714462265290955,174.53235825179868</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>-35.714771372442826,174.53315712286917</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>-35.715010311251476,174.5339774132469</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>-35.71515298370147,174.53483837940428</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>-35.71403266348239,174.53162211634782</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>-35.714379883294946,174.53240406279426</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>-35.71468578775416,174.53319953871323</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>-35.71493425296558,174.53400637264983</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>-35.71510122268354,174.53485394492094</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>-35.71410152823141,174.5315818546188</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>-35.71442885276438,174.53237683185478</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>-35.714749751359584,174.53316783830525</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>-35.714987928508144,174.5339859355441</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>-35.71520652261333,174.53482227922072</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>-35.71418494320255,174.53153308601188</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>-35.71451152208203,174.532330861025</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>-35.71481152728535,174.5331372220626</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>-35.71498973634512,174.53398524720492</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>-35.71524238358144,174.53481149512413</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>-35.714099963123616,174.53158276965885</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>-35.7144636609001,174.5323574757272</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>-35.714741625017716,174.53317186572895</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>-35.715023310459856,174.5339724637568</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>-35.71519652868327,174.53482528458986</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>-35.71411672940033,174.53157296725556</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>-35.71446916124205,174.53235441709234</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>-35.71477556097453,174.5331550470269</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>-35.71501676781194,174.5339749548911</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>-35.71515946898108,174.53483642915668</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>-35.71421614005243,174.5315148467289</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>-35.714573585630525,174.53229634860344</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>-35.71487516149577,174.53310568479964</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>-35.71513591286605,174.53392958996375</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>-35.71524934700687,174.53480940108443</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0099/nzd0099.xlsx
+++ b/data/nzd0099/nzd0099.xlsx
@@ -11294,7 +11294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11385,35 +11385,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -11472,27 +11477,28 @@
       <c r="P2" t="n">
         <v>392.0976971808459</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.52969210488956 -35.71733366304521, 174.53408712578798 -35.7098162006264)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.5296921048896</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.71733366304521</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.534087125788</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.7098162006264</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.5318896153388</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.71357493183581</v>
       </c>
     </row>
@@ -11549,27 +11555,28 @@
       <c r="P3" t="n">
         <v>382.3217757968835</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.53056874356233 -35.71768019927816, 174.53478630493868 -35.71009564303785)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.5305687435623</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.71768019927816</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.5347863049387</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.71009564303785</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.5326775242505</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.713887921158</v>
       </c>
     </row>
@@ -11626,27 +11633,28 @@
       <c r="P4" t="n">
         <v>381.6792130882859</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.53154287751252 -35.718028378421316, 174.5353692824282 -35.71030752616903)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.5315428775125</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.71802837842132</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.5353692824282</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.71030752616903</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.5334560799704</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.71416795229517</v>
       </c>
     </row>
@@ -11703,27 +11711,28 @@
       <c r="P5" t="n">
         <v>383.8823355928103</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.53269278870837 -35.71838407289631, 174.53572063956852 -35.71043168526336)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.5326927887084</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.71838407289631</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.5357206395685</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.71043168526336</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.5342067141385</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.71440787907984</v>
       </c>
     </row>
@@ -11780,27 +11789,28 @@
       <c r="P6" t="n">
         <v>382.5833858791285</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.53379643899214 -35.71861766759478, 174.53622828697763 -35.710530777960074)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.5337964389921</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.71861766759478</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.5362282869776</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.71053077796007</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.5350123629849</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.71457422277743</v>
       </c>
     </row>

--- a/data/nzd0099/nzd0099.xlsx
+++ b/data/nzd0099/nzd0099.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G294"/>
+  <dimension ref="A1:G295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8139,6 +8139,33 @@
       <c r="G294" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:32+00:00</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>384.1323529411765</v>
+      </c>
+      <c r="C295" t="n">
+        <v>374.055</v>
+      </c>
+      <c r="D295" t="n">
+        <v>372.3623529411765</v>
+      </c>
+      <c r="E295" t="n">
+        <v>381.465</v>
+      </c>
+      <c r="F295" t="n">
+        <v>375.2261538461539</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -8153,7 +8180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B312"/>
+  <dimension ref="A1:B313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11281,6 +11308,16 @@
       </c>
       <c r="B312" t="n">
         <v>0.86</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>-0.01</v>
       </c>
     </row>
   </sheetData>
@@ -11454,28 +11491,28 @@
         <v>0.09669999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2390492117904561</v>
+        <v>0.2286959183473038</v>
       </c>
       <c r="J2" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K2" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02898572601451166</v>
+        <v>0.02659447794629799</v>
       </c>
       <c r="M2" t="n">
-        <v>7.639626827443438</v>
+        <v>7.656211063541062</v>
       </c>
       <c r="N2" t="n">
-        <v>96.92293045695479</v>
+        <v>97.29092512215075</v>
       </c>
       <c r="O2" t="n">
-        <v>9.844944411064736</v>
+        <v>9.86361622946426</v>
       </c>
       <c r="P2" t="n">
-        <v>392.0976971808459</v>
+        <v>392.2067408871719</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11532,28 +11569,28 @@
         <v>0.0892</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2348282361157563</v>
+        <v>0.2243328661797618</v>
       </c>
       <c r="J3" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K3" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04722448107514055</v>
+        <v>0.04304293151709138</v>
       </c>
       <c r="M3" t="n">
-        <v>5.941847987635554</v>
+        <v>5.976163137294384</v>
       </c>
       <c r="N3" t="n">
-        <v>56.73500102076294</v>
+        <v>57.27325336934407</v>
       </c>
       <c r="O3" t="n">
-        <v>7.532264003655404</v>
+        <v>7.567909445107286</v>
       </c>
       <c r="P3" t="n">
-        <v>382.3217757968835</v>
+        <v>382.4317475958758</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11610,28 +11647,28 @@
         <v>0.0968</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1838471805783172</v>
+        <v>0.1738135170951401</v>
       </c>
       <c r="J4" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K4" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02893950784469557</v>
+        <v>0.02582246306660674</v>
       </c>
       <c r="M4" t="n">
-        <v>6.111250579353202</v>
+        <v>6.145536883282478</v>
       </c>
       <c r="N4" t="n">
-        <v>58.63683569248838</v>
+        <v>59.13769546095002</v>
       </c>
       <c r="O4" t="n">
-        <v>7.657469274668256</v>
+        <v>7.690103735382899</v>
       </c>
       <c r="P4" t="n">
-        <v>381.6792130882859</v>
+        <v>381.7839478197201</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11688,28 +11725,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1647587034956395</v>
+        <v>0.1601638048515632</v>
       </c>
       <c r="J5" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K5" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02380754033586607</v>
+        <v>0.02261962967479048</v>
       </c>
       <c r="M5" t="n">
-        <v>5.984531817305749</v>
+        <v>5.988023348808277</v>
       </c>
       <c r="N5" t="n">
-        <v>58.61978246737724</v>
+        <v>58.56497759017665</v>
       </c>
       <c r="O5" t="n">
-        <v>7.656355691017577</v>
+        <v>7.65277580948094</v>
       </c>
       <c r="P5" t="n">
-        <v>383.8823355928103</v>
+        <v>383.9302001446533</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11766,28 +11803,28 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1469186901101253</v>
+        <v>0.1389643986890458</v>
       </c>
       <c r="J6" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K6" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01951879886264363</v>
+        <v>0.01748019794940237</v>
       </c>
       <c r="M6" t="n">
-        <v>5.988309565354569</v>
+        <v>6.007198506451695</v>
       </c>
       <c r="N6" t="n">
-        <v>56.66085802919016</v>
+        <v>56.91025593906176</v>
       </c>
       <c r="O6" t="n">
-        <v>7.527340701017203</v>
+        <v>7.543888648373713</v>
       </c>
       <c r="P6" t="n">
-        <v>382.5833858791285</v>
+        <v>382.6667232183485</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -11825,7 +11862,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G294"/>
+  <dimension ref="A1:G295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22227,6 +22264,43 @@
         </is>
       </c>
     </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:32+00:00</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>-35.71420812785156,174.53151953107505</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>-35.71460941993706,174.53227642176486</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>-35.71491640770808,174.5330852430527</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>-35.715100143525255,174.53394320928896</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>-35.71533264546566,174.5347843515634</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0099/nzd0099.xlsx
+++ b/data/nzd0099/nzd0099.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G295"/>
+  <dimension ref="A1:G296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8166,6 +8166,33 @@
       <c r="G295" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>396.3982352941176</v>
+      </c>
+      <c r="C296" t="n">
+        <v>388.7</v>
+      </c>
+      <c r="D296" t="n">
+        <v>390.9582352941176</v>
+      </c>
+      <c r="E296" t="n">
+        <v>385.85</v>
+      </c>
+      <c r="F296" t="n">
+        <v>381.7630769230769</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -8180,7 +8207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B313"/>
+  <dimension ref="A1:B314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11318,6 +11345,16 @@
       </c>
       <c r="B313" t="n">
         <v>-0.01</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>-0.46</v>
       </c>
     </row>
   </sheetData>
@@ -11491,28 +11528,28 @@
         <v>0.09669999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2286959183473038</v>
+        <v>0.2274578761247527</v>
       </c>
       <c r="J2" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K2" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02659447794629799</v>
+        <v>0.02650405092174546</v>
       </c>
       <c r="M2" t="n">
-        <v>7.656211063541062</v>
+        <v>7.633426436718323</v>
       </c>
       <c r="N2" t="n">
-        <v>97.29092512215075</v>
+        <v>96.9436732516145</v>
       </c>
       <c r="O2" t="n">
-        <v>9.86361622946426</v>
+        <v>9.84599782914939</v>
       </c>
       <c r="P2" t="n">
-        <v>392.2067408871719</v>
+        <v>392.2198204586929</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11569,28 +11606,28 @@
         <v>0.0892</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2243328661797618</v>
+        <v>0.2246944853551748</v>
       </c>
       <c r="J3" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K3" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04304293151709138</v>
+        <v>0.04348569774085476</v>
       </c>
       <c r="M3" t="n">
-        <v>5.976163137294384</v>
+        <v>5.955740128180504</v>
       </c>
       <c r="N3" t="n">
-        <v>57.27325336934407</v>
+        <v>57.06280656336915</v>
       </c>
       <c r="O3" t="n">
-        <v>7.567909445107286</v>
+        <v>7.553992756375211</v>
       </c>
       <c r="P3" t="n">
-        <v>382.4317475958758</v>
+        <v>382.4279467686742</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11647,28 +11684,28 @@
         <v>0.0968</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1738135170951401</v>
+        <v>0.1771591657402908</v>
       </c>
       <c r="J4" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K4" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02582246306660674</v>
+        <v>0.02695339389869789</v>
       </c>
       <c r="M4" t="n">
-        <v>6.145536883282478</v>
+        <v>6.138327849504293</v>
       </c>
       <c r="N4" t="n">
-        <v>59.13769546095002</v>
+        <v>59.00114664983421</v>
       </c>
       <c r="O4" t="n">
-        <v>7.690103735382899</v>
+        <v>7.681220388052553</v>
       </c>
       <c r="P4" t="n">
-        <v>381.7839478197201</v>
+        <v>381.7489134768087</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11725,28 +11762,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1601638048515632</v>
+        <v>0.1586475113607021</v>
       </c>
       <c r="J5" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K5" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02261962967479048</v>
+        <v>0.02234676234384381</v>
       </c>
       <c r="M5" t="n">
-        <v>5.988023348808277</v>
+        <v>5.974415598556562</v>
       </c>
       <c r="N5" t="n">
-        <v>58.56497759017665</v>
+        <v>58.36803042255473</v>
       </c>
       <c r="O5" t="n">
-        <v>7.65277580948094</v>
+        <v>7.639897278272446</v>
       </c>
       <c r="P5" t="n">
-        <v>383.9302001446533</v>
+        <v>383.9460481891688</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11803,28 +11840,28 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1389643986890458</v>
+        <v>0.1357759362120458</v>
       </c>
       <c r="J6" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K6" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01748019794940237</v>
+        <v>0.01679588960481038</v>
       </c>
       <c r="M6" t="n">
-        <v>6.007198506451695</v>
+        <v>6.001013184432137</v>
       </c>
       <c r="N6" t="n">
-        <v>56.91025593906176</v>
+        <v>56.7704172036867</v>
       </c>
       <c r="O6" t="n">
-        <v>7.543888648373713</v>
+        <v>7.534614602200082</v>
       </c>
       <c r="P6" t="n">
-        <v>382.6667232183485</v>
+        <v>382.7002403152208</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -11862,7 +11899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G295"/>
+  <dimension ref="A1:G296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22301,6 +22338,43 @@
         </is>
       </c>
     </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>-35.71410832472389,174.53157788105</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>-35.71448919233745,174.5323432781798</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>-35.71476099451962,174.53316226618173</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>-35.71506239417126,174.5339575824992</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>-35.715275416078,174.5348015615961</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0099/nzd0099.xlsx
+++ b/data/nzd0099/nzd0099.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13014,7 +13014,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-35.7144038549387,174.53239073264857</t>
+          <t>-35.714403854938695,174.53239073264857</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -22319,7 +22319,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>-35.71491640770808,174.5330852430527</t>
+          <t>-35.71491640770809,174.5330852430527</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">

--- a/data/nzd0099/nzd0099.xlsx
+++ b/data/nzd0099/nzd0099.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G296"/>
+  <dimension ref="A1:G297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8191,6 +8191,33 @@
         <v>381.7630769230769</v>
       </c>
       <c r="G296" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>402.7194117647059</v>
+      </c>
+      <c r="C297" t="n">
+        <v>385.57</v>
+      </c>
+      <c r="D297" t="n">
+        <v>386.7894117647058</v>
+      </c>
+      <c r="E297" t="n">
+        <v>383.2</v>
+      </c>
+      <c r="F297" t="n">
+        <v>384.1030769230769</v>
+      </c>
+      <c r="G297" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -8207,7 +8234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B314"/>
+  <dimension ref="A1:B315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11355,6 +11382,16 @@
       </c>
       <c r="B314" t="n">
         <v>-0.46</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>-0.72</v>
       </c>
     </row>
   </sheetData>
@@ -11528,28 +11565,28 @@
         <v>0.09669999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2274578761247527</v>
+        <v>0.2308226755685361</v>
       </c>
       <c r="J2" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K2" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02650405092174546</v>
+        <v>0.02744845588212697</v>
       </c>
       <c r="M2" t="n">
-        <v>7.633426436718323</v>
+        <v>7.624661640422976</v>
       </c>
       <c r="N2" t="n">
-        <v>96.9436732516145</v>
+        <v>96.66642100966736</v>
       </c>
       <c r="O2" t="n">
-        <v>9.84599782914939</v>
+        <v>9.831908309665391</v>
       </c>
       <c r="P2" t="n">
-        <v>392.2198204586929</v>
+        <v>392.1841994724545</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11606,28 +11643,28 @@
         <v>0.0892</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2246944853551748</v>
+        <v>0.222770860099026</v>
       </c>
       <c r="J3" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K3" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04348569774085476</v>
+        <v>0.0430633786269915</v>
       </c>
       <c r="M3" t="n">
-        <v>5.955740128180504</v>
+        <v>5.944522388507335</v>
       </c>
       <c r="N3" t="n">
-        <v>57.06280656336915</v>
+        <v>56.87855842304948</v>
       </c>
       <c r="O3" t="n">
-        <v>7.553992756375211</v>
+        <v>7.541787481960061</v>
       </c>
       <c r="P3" t="n">
-        <v>382.4279467686742</v>
+        <v>382.4482068241441</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11684,28 +11721,28 @@
         <v>0.0968</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1771591657402908</v>
+        <v>0.1774938805875505</v>
       </c>
       <c r="J4" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K4" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02695339389869789</v>
+        <v>0.02724264060804837</v>
       </c>
       <c r="M4" t="n">
-        <v>6.138327849504293</v>
+        <v>6.117445064706964</v>
       </c>
       <c r="N4" t="n">
-        <v>59.00114664983421</v>
+        <v>58.78662308716537</v>
       </c>
       <c r="O4" t="n">
-        <v>7.681220388052553</v>
+        <v>7.66724351296901</v>
       </c>
       <c r="P4" t="n">
-        <v>381.7489134768087</v>
+        <v>381.7454010448328</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11762,28 +11799,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1586475113607021</v>
+        <v>0.1553381118975841</v>
       </c>
       <c r="J5" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K5" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02234676234384381</v>
+        <v>0.02155801321832151</v>
       </c>
       <c r="M5" t="n">
-        <v>5.974415598556562</v>
+        <v>5.970816741759366</v>
       </c>
       <c r="N5" t="n">
-        <v>58.36803042255473</v>
+        <v>58.2394652408692</v>
       </c>
       <c r="O5" t="n">
-        <v>7.639897278272446</v>
+        <v>7.631478575012132</v>
       </c>
       <c r="P5" t="n">
-        <v>383.9460481891688</v>
+        <v>383.9807145367395</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11840,28 +11877,28 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1357759362120458</v>
+        <v>0.1342927595838088</v>
       </c>
       <c r="J6" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K6" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01679588960481038</v>
+        <v>0.01654696139029987</v>
       </c>
       <c r="M6" t="n">
-        <v>6.001013184432137</v>
+        <v>5.986055329806499</v>
       </c>
       <c r="N6" t="n">
-        <v>56.7704172036867</v>
+        <v>56.57335442970706</v>
       </c>
       <c r="O6" t="n">
-        <v>7.534614602200082</v>
+        <v>7.521526070532965</v>
       </c>
       <c r="P6" t="n">
-        <v>382.7002403152208</v>
+        <v>382.7158660264838</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -11899,7 +11936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G296"/>
+  <dimension ref="A1:G297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22375,6 +22412,43 @@
         </is>
       </c>
     </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>-35.71405689154606,174.5316079514353</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>-35.71451488796253,174.53232898932092</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>-35.71479583504069,174.53314499916758</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>-35.715085207350036,174.53394889629618</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>-35.715254929869225,174.53480772220706</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0099/nzd0099.xlsx
+++ b/data/nzd0099/nzd0099.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G297"/>
+  <dimension ref="A1:G298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8220,6 +8220,33 @@
       <c r="G297" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>386.8294117647059</v>
+      </c>
+      <c r="C298" t="n">
+        <v>375.395</v>
+      </c>
+      <c r="D298" t="n">
+        <v>376.4694117647059</v>
+      </c>
+      <c r="E298" t="n">
+        <v>382.925</v>
+      </c>
+      <c r="F298" t="n">
+        <v>378.4807692307692</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -8234,7 +8261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B315"/>
+  <dimension ref="A1:B316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11392,6 +11419,16 @@
       </c>
       <c r="B315" t="n">
         <v>-0.72</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
@@ -11565,28 +11602,28 @@
         <v>0.09669999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2308226755685361</v>
+        <v>0.2226018444525935</v>
       </c>
       <c r="J2" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K2" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02744845588212697</v>
+        <v>0.02564383646990032</v>
       </c>
       <c r="M2" t="n">
-        <v>7.624661640422976</v>
+        <v>7.632452106413884</v>
       </c>
       <c r="N2" t="n">
-        <v>96.66642100966736</v>
+        <v>96.77698782062767</v>
       </c>
       <c r="O2" t="n">
-        <v>9.831908309665391</v>
+        <v>9.837529558818497</v>
       </c>
       <c r="P2" t="n">
-        <v>392.1841994724545</v>
+        <v>392.2716711742562</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11643,28 +11680,28 @@
         <v>0.0892</v>
       </c>
       <c r="I3" t="n">
-        <v>0.222770860099026</v>
+        <v>0.2134704855327334</v>
       </c>
       <c r="J3" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K3" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0430633786269915</v>
+        <v>0.03956990470676724</v>
       </c>
       <c r="M3" t="n">
-        <v>5.944522388507335</v>
+        <v>5.973888915934169</v>
       </c>
       <c r="N3" t="n">
-        <v>56.87855842304948</v>
+        <v>57.26560318358422</v>
       </c>
       <c r="O3" t="n">
-        <v>7.541787481960061</v>
+        <v>7.567403992359877</v>
       </c>
       <c r="P3" t="n">
-        <v>382.4482068241441</v>
+        <v>382.5466618151403</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11721,28 +11758,28 @@
         <v>0.0968</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1774938805875505</v>
+        <v>0.1705156254727572</v>
       </c>
       <c r="J4" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K4" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02724264060804837</v>
+        <v>0.02522736641392509</v>
       </c>
       <c r="M4" t="n">
-        <v>6.117445064706964</v>
+        <v>6.135148567565641</v>
       </c>
       <c r="N4" t="n">
-        <v>58.78662308716537</v>
+        <v>58.92333685340306</v>
       </c>
       <c r="O4" t="n">
-        <v>7.66724351296901</v>
+        <v>7.676153779947549</v>
       </c>
       <c r="P4" t="n">
-        <v>381.7454010448328</v>
+        <v>381.8190149664562</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11799,28 +11836,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1553381118975841</v>
+        <v>0.1518623055275164</v>
       </c>
       <c r="J5" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K5" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02155801321832151</v>
+        <v>0.02073161830861159</v>
       </c>
       <c r="M5" t="n">
-        <v>5.970816741759366</v>
+        <v>5.968041825444401</v>
       </c>
       <c r="N5" t="n">
-        <v>58.2394652408692</v>
+        <v>58.12044094894789</v>
       </c>
       <c r="O5" t="n">
-        <v>7.631478575012132</v>
+        <v>7.623676340778633</v>
       </c>
       <c r="P5" t="n">
-        <v>383.9807145367395</v>
+        <v>384.0173253908926</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11877,28 +11914,28 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1342927595838088</v>
+        <v>0.1288388677532466</v>
       </c>
       <c r="J6" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K6" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01654696139029987</v>
+        <v>0.0152987917802615</v>
       </c>
       <c r="M6" t="n">
-        <v>5.986055329806499</v>
+        <v>5.991430911423321</v>
       </c>
       <c r="N6" t="n">
-        <v>56.57335442970706</v>
+        <v>56.58180179225092</v>
       </c>
       <c r="O6" t="n">
-        <v>7.521526070532965</v>
+        <v>7.522087595358813</v>
       </c>
       <c r="P6" t="n">
-        <v>382.7158660264838</v>
+        <v>382.7736407589476</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -11936,7 +11973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G297"/>
+  <dimension ref="A1:G298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22449,6 +22486,43 @@
         </is>
       </c>
     </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>-35.71418618284422,174.5315323612539</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>-35.7145984192568,174.53228253905507</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>-35.71488208338716,174.53310225429098</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>-35.71508757475536,174.53394799489746</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>-35.7153041519923,174.5347929201293</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0099/nzd0099.xlsx
+++ b/data/nzd0099/nzd0099.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G298"/>
+  <dimension ref="A1:G302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8245,6 +8245,110 @@
         <v>378.4807692307692</v>
       </c>
       <c r="G298" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr"/>
+      <c r="C299" t="inlineStr"/>
+      <c r="D299" t="n">
+        <v>383.9805882352941</v>
+      </c>
+      <c r="E299" t="n">
+        <v>382.725</v>
+      </c>
+      <c r="F299" t="n">
+        <v>377.41</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>391.5782352941176</v>
+      </c>
+      <c r="C300" t="n">
+        <v>381.34</v>
+      </c>
+      <c r="D300" t="n">
+        <v>382.0982352941176</v>
+      </c>
+      <c r="E300" t="n">
+        <v>388.15</v>
+      </c>
+      <c r="F300" t="n">
+        <v>382.1638461538461</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>391.4288235294118</v>
+      </c>
+      <c r="C301" t="n">
+        <v>383.615</v>
+      </c>
+      <c r="D301" t="n">
+        <v>385.2888235294118</v>
+      </c>
+      <c r="E301" t="n">
+        <v>379.475</v>
+      </c>
+      <c r="F301" t="n">
+        <v>383.8246153846154</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>382.6376470588235</v>
+      </c>
+      <c r="C302" t="n">
+        <v>369.42</v>
+      </c>
+      <c r="D302" t="n">
+        <v>382.2576470588235</v>
+      </c>
+      <c r="E302" t="n">
+        <v>379.92</v>
+      </c>
+      <c r="F302" t="n">
+        <v>374.3576923076923</v>
+      </c>
+      <c r="G302" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -8261,7 +8365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B316"/>
+  <dimension ref="A1:B320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11429,6 +11533,46 @@
       </c>
       <c r="B316" t="n">
         <v>0.47</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>
@@ -11602,28 +11746,28 @@
         <v>0.09669999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2226018444525935</v>
+        <v>0.2024492390045406</v>
       </c>
       <c r="J2" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K2" t="n">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02564383646990032</v>
+        <v>0.02152003776988176</v>
       </c>
       <c r="M2" t="n">
-        <v>7.632452106413884</v>
+        <v>7.63680412044716</v>
       </c>
       <c r="N2" t="n">
-        <v>96.77698782062767</v>
+        <v>96.86434604245116</v>
       </c>
       <c r="O2" t="n">
-        <v>9.837529558818497</v>
+        <v>9.841968606048852</v>
       </c>
       <c r="P2" t="n">
-        <v>392.2716711742562</v>
+        <v>392.4868171846165</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11680,28 +11824,28 @@
         <v>0.0892</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2134704855327334</v>
+        <v>0.192341915434652</v>
       </c>
       <c r="J3" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K3" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03956990470676724</v>
+        <v>0.0322582854126594</v>
       </c>
       <c r="M3" t="n">
-        <v>5.973888915934169</v>
+        <v>6.026038197153801</v>
       </c>
       <c r="N3" t="n">
-        <v>57.26560318358422</v>
+        <v>58.10842984342118</v>
       </c>
       <c r="O3" t="n">
-        <v>7.567403992359877</v>
+        <v>7.622888549849144</v>
       </c>
       <c r="P3" t="n">
-        <v>382.5466618151403</v>
+        <v>382.7711037229878</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11758,28 +11902,28 @@
         <v>0.0968</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1705156254727572</v>
+        <v>0.1627876644656504</v>
       </c>
       <c r="J4" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K4" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02522736641392509</v>
+        <v>0.02363652042491671</v>
       </c>
       <c r="M4" t="n">
-        <v>6.135148567565641</v>
+        <v>6.090725705080673</v>
       </c>
       <c r="N4" t="n">
-        <v>58.92333685340306</v>
+        <v>58.21385395845118</v>
       </c>
       <c r="O4" t="n">
-        <v>7.676153779947549</v>
+        <v>7.629800387850994</v>
       </c>
       <c r="P4" t="n">
-        <v>381.8190149664562</v>
+        <v>381.9007577301439</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11836,28 +11980,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1518623055275164</v>
+        <v>0.1376135365514345</v>
       </c>
       <c r="J5" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K5" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02073161830861159</v>
+        <v>0.01737705900428277</v>
       </c>
       <c r="M5" t="n">
-        <v>5.968041825444401</v>
+        <v>5.961466789710305</v>
       </c>
       <c r="N5" t="n">
-        <v>58.12044094894789</v>
+        <v>57.85810076429698</v>
       </c>
       <c r="O5" t="n">
-        <v>7.623676340778633</v>
+        <v>7.606451259575452</v>
       </c>
       <c r="P5" t="n">
-        <v>384.0173253908926</v>
+        <v>384.1678863207583</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11914,28 +12058,28 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1288388677532466</v>
+        <v>0.110634152927899</v>
       </c>
       <c r="J6" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K6" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0152987917802615</v>
+        <v>0.01147105015082439</v>
       </c>
       <c r="M6" t="n">
-        <v>5.991430911423321</v>
+        <v>5.995251246647599</v>
       </c>
       <c r="N6" t="n">
-        <v>56.58180179225092</v>
+        <v>56.58614665833972</v>
       </c>
       <c r="O6" t="n">
-        <v>7.522087595358813</v>
+        <v>7.522376397013096</v>
       </c>
       <c r="P6" t="n">
-        <v>382.7736407589476</v>
+        <v>382.967044552344</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -11973,7 +12117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G298"/>
+  <dimension ref="A1:G302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22523,6 +22667,146 @@
         </is>
       </c>
     </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr"/>
+      <c r="C299" t="inlineStr"/>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>-35.71481930949799,174.5331333651827</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>-35.715089296504665,174.53394733933476</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>-35.715313526351835,174.53479010106972</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>-35.71414754335489,174.53155495186616</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>-35.714549613996475,174.53230967880418</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>-35.714835041070884,174.5331255685818</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>-35.71504259405335,174.53396512146406</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>-35.715271907427535,174.5348026167174</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>-35.71414875906538,174.53155424110025</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>-35.71453093746558,174.53232006448602</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>-35.71480837605455,174.53313878381857</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>-35.715117274930535,174.53393668643673</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>-35.71525736774154,174.53480698909047</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>-35.71422028974062,174.5315124206066</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>-35.71464747079532,174.53225526231932</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>-35.71483370880332,174.53312622885656</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>-35.71511344403844,174.53393814506472</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>-35.71534024866372,174.53478206512636</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0099/nzd0099.xlsx
+++ b/data/nzd0099/nzd0099.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G302"/>
+  <dimension ref="A1:G303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8349,6 +8349,33 @@
         <v>374.3576923076923</v>
       </c>
       <c r="G302" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>391.4994117647059</v>
+      </c>
+      <c r="C303" t="n">
+        <v>384.58</v>
+      </c>
+      <c r="D303" t="n">
+        <v>387.1694117647058</v>
+      </c>
+      <c r="E303" t="n">
+        <v>382.43</v>
+      </c>
+      <c r="F303" t="n">
+        <v>373.8230769230769</v>
+      </c>
+      <c r="G303" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -8365,7 +8392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B320"/>
+  <dimension ref="A1:B321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11573,6 +11600,16 @@
       </c>
       <c r="B320" t="n">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>-0.72</v>
       </c>
     </row>
   </sheetData>
@@ -12117,7 +12154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G302"/>
+  <dimension ref="A1:G303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22807,6 +22844,43 @@
         </is>
       </c>
     </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>-35.71414818471397,174.5315545768952</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>-35.71452301533243,174.53232446983978</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>-35.71479265922922,174.5331465731051</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>-35.71509183608489,174.5339463723797</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>-35.71534492910894,174.53478065762064</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0099/nzd0099.xlsx
+++ b/data/nzd0099/nzd0099.xlsx
@@ -11783,28 +11783,28 @@
         <v>0.09669999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2024492390045406</v>
+        <v>0.1979992582367092</v>
       </c>
       <c r="J2" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K2" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02152003776988176</v>
+        <v>0.02072311192644416</v>
       </c>
       <c r="M2" t="n">
-        <v>7.63680412044716</v>
+        <v>7.628373701745931</v>
       </c>
       <c r="N2" t="n">
-        <v>96.86434604245116</v>
+        <v>96.65591856131989</v>
       </c>
       <c r="O2" t="n">
-        <v>9.841968606048852</v>
+        <v>9.83137419495972</v>
       </c>
       <c r="P2" t="n">
-        <v>392.4868171846165</v>
+        <v>392.5346466966342</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11861,28 +11861,28 @@
         <v>0.0892</v>
       </c>
       <c r="I3" t="n">
-        <v>0.192341915434652</v>
+        <v>0.1900636499706806</v>
       </c>
       <c r="J3" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K3" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0322582854126594</v>
+        <v>0.03172890788840588</v>
       </c>
       <c r="M3" t="n">
-        <v>6.026038197153801</v>
+        <v>6.016939707711437</v>
       </c>
       <c r="N3" t="n">
-        <v>58.10842984342118</v>
+        <v>57.93550852148407</v>
       </c>
       <c r="O3" t="n">
-        <v>7.622888549849144</v>
+        <v>7.61153785522243</v>
       </c>
       <c r="P3" t="n">
-        <v>382.7711037229878</v>
+        <v>382.7954679334349</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11939,28 +11939,28 @@
         <v>0.0968</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1627876644656504</v>
+        <v>0.1634851112644193</v>
       </c>
       <c r="J4" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K4" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02363652042491671</v>
+        <v>0.0239978907728865</v>
       </c>
       <c r="M4" t="n">
-        <v>6.090725705080673</v>
+        <v>6.072318717635819</v>
       </c>
       <c r="N4" t="n">
-        <v>58.21385395845118</v>
+        <v>58.00961344846007</v>
       </c>
       <c r="O4" t="n">
-        <v>7.629800387850994</v>
+        <v>7.616404233525166</v>
       </c>
       <c r="P4" t="n">
-        <v>381.9007577301439</v>
+        <v>381.8933224434787</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12017,28 +12017,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1376135365514345</v>
+        <v>0.134072071270285</v>
       </c>
       <c r="J5" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K5" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01737705900428277</v>
+        <v>0.0165901956302853</v>
       </c>
       <c r="M5" t="n">
-        <v>5.961466789710305</v>
+        <v>5.959086863522717</v>
       </c>
       <c r="N5" t="n">
-        <v>57.85810076429698</v>
+        <v>57.75191023656476</v>
       </c>
       <c r="O5" t="n">
-        <v>7.606451259575452</v>
+        <v>7.599467760084568</v>
       </c>
       <c r="P5" t="n">
-        <v>384.1678863207583</v>
+        <v>384.2056028279554</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -12095,28 +12095,28 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.110634152927899</v>
+        <v>0.1023873896841115</v>
       </c>
       <c r="J6" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K6" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01147105015082439</v>
+        <v>0.009817778322882886</v>
       </c>
       <c r="M6" t="n">
-        <v>5.995251246647599</v>
+        <v>6.015594781440794</v>
       </c>
       <c r="N6" t="n">
-        <v>56.58614665833972</v>
+        <v>56.90476835143726</v>
       </c>
       <c r="O6" t="n">
-        <v>7.522376397013096</v>
+        <v>7.543524928800677</v>
       </c>
       <c r="P6" t="n">
-        <v>382.967044552344</v>
+        <v>383.0553713530816</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">

--- a/data/nzd0099/nzd0099.xlsx
+++ b/data/nzd0099/nzd0099.xlsx
@@ -11774,13 +11774,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0766</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09669999999999999</v>
+        <v>0.1262</v>
       </c>
       <c r="I2" t="n">
         <v>0.1980077274361525</v>
@@ -11852,13 +11852,13 @@
         <v>0.2500651748686213</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07480000000000001</v>
+        <v>0.0907</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0892</v>
+        <v>0.1099</v>
       </c>
       <c r="I3" t="n">
         <v>0.1901062896147555</v>
@@ -11933,10 +11933,10 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0775</v>
+        <v>0.0638</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0968</v>
+        <v>0.1393</v>
       </c>
       <c r="I4" t="n">
         <v>0.163489545242153</v>
@@ -12008,13 +12008,13 @@
         <v>0.7499806235574397</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0721</v>
+        <v>0.09429999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08749999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="I5" t="n">
         <v>0.134094480095963</v>
@@ -12086,13 +12086,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.065</v>
+        <v>0.1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0595</v>
+        <v>0.06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I6" t="n">
         <v>0.1023641587402895</v>

--- a/data/nzd0099/nzd0099.xlsx
+++ b/data/nzd0099/nzd0099.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G305"/>
+  <dimension ref="A1:G306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8676,6 +8676,33 @@
       <c r="G305" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>393.14</v>
+      </c>
+      <c r="C306" t="n">
+        <v>380.55</v>
+      </c>
+      <c r="D306" t="n">
+        <v>384.4</v>
+      </c>
+      <c r="E306" t="n">
+        <v>385.73</v>
+      </c>
+      <c r="F306" t="n">
+        <v>381.48</v>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -8690,7 +8717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B323"/>
+  <dimension ref="A1:B324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11928,6 +11955,16 @@
       </c>
       <c r="B323" t="n">
         <v>0.12</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>-0.37</v>
       </c>
     </row>
   </sheetData>
@@ -12098,31 +12135,31 @@
         <v>0.0698</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1271</v>
+        <v>0.1268</v>
       </c>
       <c r="I2" t="n">
-        <v>0.158132619595856</v>
+        <v>0.1557831109497046</v>
       </c>
       <c r="J2" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K2" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05765003449739747</v>
+        <v>0.05627207756043451</v>
       </c>
       <c r="M2" t="n">
-        <v>3.749086242585342</v>
+        <v>3.748288582365726</v>
       </c>
       <c r="N2" t="n">
-        <v>21.43777224690961</v>
+        <v>21.41271932669219</v>
       </c>
       <c r="O2" t="n">
-        <v>4.63009419417247</v>
+        <v>4.627387959388341</v>
       </c>
       <c r="P2" t="n">
-        <v>392.7254319421002</v>
+        <v>392.7510607411532</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12176,31 +12213,31 @@
         <v>0.0907</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1099</v>
+        <v>0.1098</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1540242644543646</v>
+        <v>0.1499251694361998</v>
       </c>
       <c r="J3" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K3" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08189907255746864</v>
+        <v>0.07768513407293165</v>
       </c>
       <c r="M3" t="n">
-        <v>2.775034315227888</v>
+        <v>2.785576064997598</v>
       </c>
       <c r="N3" t="n">
-        <v>13.94805989669978</v>
+        <v>14.04001623959849</v>
       </c>
       <c r="O3" t="n">
-        <v>3.734710148953969</v>
+        <v>3.747000966052516</v>
       </c>
       <c r="P3" t="n">
-        <v>383.0276330741348</v>
+        <v>383.0723466284737</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12251,34 +12288,34 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0638</v>
+        <v>0.0639</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1396</v>
+        <v>0.1394</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1326763049335418</v>
+        <v>0.1318336107775202</v>
       </c>
       <c r="J4" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K4" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07323991415402142</v>
+        <v>0.07277677173311758</v>
       </c>
       <c r="M4" t="n">
-        <v>2.725011609539951</v>
+        <v>2.720497211976999</v>
       </c>
       <c r="N4" t="n">
-        <v>11.68235244941053</v>
+        <v>11.64986879839715</v>
       </c>
       <c r="O4" t="n">
-        <v>3.417945647521408</v>
+        <v>3.413190413439771</v>
       </c>
       <c r="P4" t="n">
-        <v>382.2620530706781</v>
+        <v>382.2712453072008</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12329,34 +12366,34 @@
         <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0941</v>
+        <v>0.0939</v>
       </c>
       <c r="H5" t="n">
         <v>0.2</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1116993526451662</v>
+        <v>0.1111890921764599</v>
       </c>
       <c r="J5" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K5" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05386363159136243</v>
+        <v>0.05371381347912851</v>
       </c>
       <c r="M5" t="n">
-        <v>2.488789077193452</v>
+        <v>2.48332736893745</v>
       </c>
       <c r="N5" t="n">
-        <v>11.49432552004852</v>
+        <v>11.45877275762942</v>
       </c>
       <c r="O5" t="n">
-        <v>3.390328231904475</v>
+        <v>3.385080908579501</v>
       </c>
       <c r="P5" t="n">
-        <v>383.6141000435641</v>
+        <v>383.6196660426671</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -12407,34 +12444,34 @@
         <v>0.1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0599</v>
+        <v>0.06</v>
       </c>
       <c r="H6" t="n">
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.107334027334074</v>
+        <v>0.1049485079196354</v>
       </c>
       <c r="J6" t="n">
+        <v>305</v>
+      </c>
+      <c r="K6" t="n">
         <v>304</v>
       </c>
-      <c r="K6" t="n">
-        <v>303</v>
-      </c>
       <c r="L6" t="n">
-        <v>0.04580911779086427</v>
+        <v>0.04399744500125191</v>
       </c>
       <c r="M6" t="n">
-        <v>2.833180129186762</v>
+        <v>2.836639432022863</v>
       </c>
       <c r="N6" t="n">
-        <v>12.51020112264799</v>
+        <v>12.51533665721628</v>
       </c>
       <c r="O6" t="n">
-        <v>3.536976268318462</v>
+        <v>3.537702171921244</v>
       </c>
       <c r="P6" t="n">
-        <v>382.4393841935614</v>
+        <v>382.4655268847119</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -12472,7 +12509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G305"/>
+  <dimension ref="A1:G306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23761,6 +23798,43 @@
         </is>
       </c>
     </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>-35.71413483582968,174.53156238132706</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>-35.714556099472944,174.53230607234653</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>-35.71481580430684,174.53313510236242</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>-35.715063427220876,174.5339571891618</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>-35.715277894357015,174.53480081632807</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
